--- a/Geant4Work/data/scatteringRate/Inf0503/scatteringRate.xlsx
+++ b/Geant4Work/data/scatteringRate/Inf0503/scatteringRate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16740" windowHeight="8070"/>
+    <workbookView windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Inf0503" sheetId="3" r:id="rId1"/>
@@ -70,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,24 +86,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,67 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +138,83 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -221,9 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,31 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +274,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,115 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,17 +450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,16 +472,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,30 +503,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -544,129 +511,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,22 +675,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AL33"/>
+  <dimension ref="B2:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1314,14 +1314,14 @@
         <v>400709</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K33" si="1">I5/J5</f>
+        <f>I5/J5</f>
         <v>2.58683982640769</v>
       </c>
       <c r="L5" s="1">
         <v>3.71</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M33" si="2">ABS(L5-K5)/L5</f>
+        <f>ABS(L5-K5)/L5</f>
         <v>0.302738591264773</v>
       </c>
       <c r="N5" s="2"/>
@@ -1347,14 +1347,14 @@
         <v>449394</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X5:X33" si="3">V5/W5</f>
+        <f t="shared" ref="X5:X33" si="1">V5/W5</f>
         <v>2.41529704446432</v>
       </c>
       <c r="Y5" s="1">
         <v>3.24</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z33" si="4">ABS(Y5-X5)/Y5</f>
+        <f t="shared" ref="Z5:Z33" si="2">ABS(Y5-X5)/Y5</f>
         <v>0.254537949239406</v>
       </c>
       <c r="AB5" s="2">
@@ -1378,14 +1378,14 @@
         <v>1437550</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" ref="AJ5:AJ27" si="5">AH5/AI5</f>
+        <f t="shared" ref="AJ5:AJ27" si="3">AH5/AI5</f>
         <v>1.56709679663316</v>
       </c>
       <c r="AK5" s="1">
         <v>1.67</v>
       </c>
       <c r="AL5" s="1">
-        <f t="shared" ref="AL5:AL33" si="6">ABS(AK5-AJ5)/AK5</f>
+        <f t="shared" ref="AL5:AL33" si="4">ABS(AK5-AJ5)/AK5</f>
         <v>0.061618684650802</v>
       </c>
     </row>
@@ -1418,14 +1418,14 @@
         <v>814494</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f>I6/J6</f>
         <v>2.10899036702542</v>
       </c>
       <c r="L6" s="1">
         <v>2.77</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS(L6-K6)/L6</f>
         <v>0.238631636452918</v>
       </c>
       <c r="N6" s="2"/>
@@ -1451,14 +1451,14 @@
         <v>904392</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.02886580155508</v>
       </c>
       <c r="Y6" s="1">
         <v>3.62</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.439539833824564</v>
       </c>
       <c r="AB6" s="2">
@@ -1482,14 +1482,14 @@
         <v>2787690</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.64802757838928</v>
       </c>
       <c r="AK6" s="1">
         <v>1.77</v>
       </c>
       <c r="AL6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0689109726614262</v>
       </c>
     </row>
@@ -1522,14 +1522,14 @@
         <v>1228610</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f>I7/J7</f>
         <v>1.90092055249428</v>
       </c>
       <c r="L7" s="1">
         <v>2.42</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS(L7-K7)/L7</f>
         <v>0.214495639465173</v>
       </c>
       <c r="N7" s="2"/>
@@ -1555,14 +1555,14 @@
         <v>1361080</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.84377112293179</v>
       </c>
       <c r="Y7" s="1">
         <v>2.3</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.198360381334005</v>
       </c>
       <c r="AB7" s="2">
@@ -1586,14 +1586,14 @@
         <v>4149490</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.57663471896546</v>
       </c>
       <c r="AK7" s="1">
         <v>1.68</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.061526952996748</v>
       </c>
     </row>
@@ -1626,14 +1626,14 @@
         <v>1641740</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f>I8/J8</f>
         <v>1.77730334888594</v>
       </c>
       <c r="L8" s="1">
         <v>2.17</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f>ABS(L8-K8)/L8</f>
         <v>0.180966198670075</v>
       </c>
       <c r="N8" s="2"/>
@@ -1659,14 +1659,14 @@
         <v>1806250</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.73129965397924</v>
       </c>
       <c r="Y8" s="1">
         <v>2.1</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.17557159334322</v>
       </c>
       <c r="AB8" s="2">
@@ -1690,55 +1690,34 @@
         <v>5439220</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.51066697063182</v>
       </c>
       <c r="AK8" s="1">
         <v>1.57</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.037791738451071</v>
       </c>
     </row>
     <row r="9" spans="2:38">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>0.02429</v>
+        <v>0.0277</v>
       </c>
       <c r="D9" s="1">
-        <v>41.16920543</v>
+        <f>1/C9</f>
+        <v>36.101083032491</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>823.3841087</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1300569</v>
-      </c>
-      <c r="H9" s="1">
-        <v>409903</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5067340</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3281110</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.54439808479447</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.112414893796279</v>
+        <f>E9*D9*10</f>
+        <v>722.02166064982</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
@@ -1763,14 +1742,14 @@
         <v>3544860</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.50769564947558</v>
       </c>
       <c r="Y9" s="1">
         <v>1.68</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.102562113407394</v>
       </c>
       <c r="AB9" s="2">
@@ -1794,55 +1773,55 @@
         <v>1049680</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.43463722277265</v>
       </c>
       <c r="AK9" s="1">
         <v>1.3</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.103567094440503</v>
       </c>
     </row>
     <row r="10" spans="2:38">
       <c r="B10" s="1">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>0.09687</v>
+        <v>0.02429</v>
       </c>
       <c r="D10" s="1">
-        <v>10.32311345</v>
+        <v>41.16920543</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>412.924538</v>
+        <v>823.3841087</v>
       </c>
       <c r="G10" s="1">
-        <v>1031977</v>
+        <v>1300569</v>
       </c>
       <c r="H10" s="1">
-        <v>54797</v>
+        <v>409903</v>
       </c>
       <c r="I10" s="1">
-        <v>195467</v>
+        <v>5067340</v>
       </c>
       <c r="J10" s="1">
-        <v>27400</v>
+        <v>3281110</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>7.13383211678832</v>
+        <f>I10/J10</f>
+        <v>1.54439808479447</v>
       </c>
       <c r="L10" s="1">
-        <v>14.3</v>
+        <v>1.74</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.501130621203614</v>
+        <f>ABS(L10-K10)/L10</f>
+        <v>0.112414893796279</v>
       </c>
       <c r="O10" s="1">
         <v>0.5</v>
@@ -1866,14 +1845,14 @@
         <v>34268</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.86853624372593</v>
       </c>
       <c r="Y10" s="1">
         <v>9</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.347940417363786</v>
       </c>
       <c r="AB10" s="1">
@@ -1897,55 +1876,55 @@
         <v>118269</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.50681920029763</v>
       </c>
       <c r="AK10" s="1">
         <v>1.61</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0640874532312879</v>
       </c>
     </row>
     <row r="11" spans="2:38">
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.07072</v>
+        <v>0.09687</v>
       </c>
       <c r="D11" s="1">
-        <v>14.14027149</v>
+        <v>10.32311345</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>565.6108597</v>
+        <v>412.924538</v>
       </c>
       <c r="G11" s="1">
-        <v>743088</v>
+        <v>1031977</v>
       </c>
       <c r="H11" s="1">
-        <v>54058</v>
+        <v>54797</v>
       </c>
       <c r="I11" s="1">
-        <v>261578</v>
+        <v>195467</v>
       </c>
       <c r="J11" s="1">
-        <v>54060</v>
+        <v>27400</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8386607473178</v>
+        <f>I11/J11</f>
+        <v>7.13383211678832</v>
       </c>
       <c r="L11" s="1">
-        <v>7.68</v>
+        <v>14.3</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.369966048526329</v>
+        <f>ABS(L11-K11)/L11</f>
+        <v>0.501130621203614</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
@@ -1970,14 +1949,14 @@
         <v>67161</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.36405056506008</v>
       </c>
       <c r="Y11" s="1">
         <v>6.43</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.321298512432336</v>
       </c>
       <c r="AB11" s="2">
@@ -2001,55 +1980,55 @@
         <v>206911</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.02330953888387</v>
       </c>
       <c r="AK11" s="1">
         <v>2.19</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0761143658064529</v>
       </c>
     </row>
     <row r="12" spans="2:38">
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>0.04942</v>
+        <v>0.07072</v>
       </c>
       <c r="D12" s="1">
-        <v>20.23472278</v>
+        <v>14.14027149</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>809.3889114</v>
+        <v>565.6108597</v>
       </c>
       <c r="G12" s="1">
-        <v>498421</v>
+        <v>743088</v>
       </c>
       <c r="H12" s="1">
-        <v>55319</v>
+        <v>54058</v>
       </c>
       <c r="I12" s="1">
-        <v>373909</v>
+        <v>261578</v>
       </c>
       <c r="J12" s="1">
-        <v>110648</v>
+        <v>54060</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>3.37926577977008</v>
+        <f>I12/J12</f>
+        <v>4.8386607473178</v>
       </c>
       <c r="L12" s="1">
-        <v>4.88</v>
+        <v>7.68</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.307527504145475</v>
+        <f>ABS(L12-K12)/L12</f>
+        <v>0.369966048526329</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
@@ -2074,14 +2053,14 @@
         <v>136952</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.19993136281325</v>
       </c>
       <c r="Y12" s="1">
         <v>4.56</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.298260666049726</v>
       </c>
       <c r="AB12" s="2">
@@ -2105,55 +2084,55 @@
         <v>389410</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.27849824092858</v>
       </c>
       <c r="AK12" s="1">
         <v>2.54</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.102953448453313</v>
       </c>
     </row>
     <row r="13" spans="2:38">
       <c r="B13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0.03969</v>
+        <v>0.04942</v>
       </c>
       <c r="D13" s="1">
-        <v>25.19526329</v>
+        <v>20.23472278</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>1007.810532</v>
+        <v>809.3889114</v>
       </c>
       <c r="G13" s="1">
-        <v>339348</v>
+        <v>498421</v>
       </c>
       <c r="H13" s="1">
-        <v>56188</v>
+        <v>55319</v>
       </c>
       <c r="I13" s="1">
-        <v>478059</v>
+        <v>373909</v>
       </c>
       <c r="J13" s="1">
-        <v>168579</v>
+        <v>110648</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>2.83581584894916</v>
+        <f>I13/J13</f>
+        <v>3.37926577977008</v>
       </c>
       <c r="L13" s="1">
-        <v>3.91</v>
+        <v>4.88</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.274727404360829</v>
+        <f>ABS(L13-K13)/L13</f>
+        <v>0.307527504145475</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
@@ -2178,14 +2157,14 @@
         <v>206832</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.72844627523787</v>
       </c>
       <c r="Y13" s="1">
         <v>3.73</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.268513062938908</v>
       </c>
       <c r="AB13" s="2">
@@ -2209,55 +2188,55 @@
         <v>575016</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.19025209733294</v>
       </c>
       <c r="AK13" s="1">
         <v>2.44</v>
       </c>
       <c r="AL13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.102355697814367</v>
       </c>
     </row>
     <row r="14" spans="2:38">
       <c r="B14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>0.03403</v>
+        <v>0.03969</v>
       </c>
       <c r="D14" s="1">
-        <v>29.38583603</v>
+        <v>25.19526329</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>1175.433441</v>
+        <v>1007.810532</v>
       </c>
       <c r="G14" s="1">
-        <v>345590</v>
+        <v>339348</v>
       </c>
       <c r="H14" s="1">
-        <v>56491</v>
+        <v>56188</v>
       </c>
       <c r="I14" s="1">
-        <v>574775</v>
+        <v>478059</v>
       </c>
       <c r="J14" s="1">
-        <v>225968</v>
+        <v>168579</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>2.54361236989308</v>
+        <f>I14/J14</f>
+        <v>2.83581584894916</v>
       </c>
       <c r="L14" s="1">
-        <v>3.34</v>
+        <v>3.91</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.238439410211652</v>
+        <f>ABS(L14-K14)/L14</f>
+        <v>0.274727404360829</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
@@ -2282,14 +2261,14 @@
         <v>274088</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.46797743790316</v>
       </c>
       <c r="Y14" s="1">
         <v>3.26</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.242951706164676</v>
       </c>
       <c r="AB14" s="2">
@@ -2313,55 +2292,55 @@
         <v>740700</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.08610773592548</v>
       </c>
       <c r="AK14" s="1">
         <v>2.27</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0810098079623455</v>
       </c>
     </row>
     <row r="15" spans="2:38">
       <c r="B15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>0.02429</v>
+        <v>0.03403</v>
       </c>
       <c r="D15" s="1">
-        <v>41.16920543</v>
+        <v>29.38583603</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>1646.768217</v>
+        <v>1175.433441</v>
       </c>
       <c r="G15" s="1">
-        <v>260624</v>
+        <v>345590</v>
       </c>
       <c r="H15" s="1">
-        <v>56221</v>
+        <v>56491</v>
       </c>
       <c r="I15" s="1">
-        <v>922026</v>
+        <v>574775</v>
       </c>
       <c r="J15" s="1">
-        <v>449800</v>
+        <v>225968</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0498577145398</v>
+        <f>I15/J15</f>
+        <v>2.54361236989308</v>
       </c>
       <c r="L15" s="1">
-        <v>2.4</v>
+        <v>3.34</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.145892618941752</v>
+        <f>ABS(L15-K15)/L15</f>
+        <v>0.238439410211652</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
@@ -2386,14 +2365,14 @@
         <v>526864</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.99586610586413</v>
       </c>
       <c r="Y15" s="1">
         <v>2.35</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.150695274100369</v>
       </c>
       <c r="AB15" s="2">
@@ -2417,55 +2396,34 @@
         <v>1383590</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.0286717886079</v>
       </c>
       <c r="AK15" s="1">
         <v>1.74</v>
       </c>
       <c r="AL15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.165903326786148</v>
       </c>
     </row>
     <row r="16" spans="2:38">
       <c r="B16" s="1">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>0.09687</v>
+        <v>0.0277</v>
       </c>
       <c r="D16" s="1">
-        <v>10.32311345</v>
+        <f>1/C16</f>
+        <v>36.101083032491</v>
       </c>
       <c r="E16" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>722.6179416</v>
-      </c>
-      <c r="G16" s="1">
-        <v>141660</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2700</v>
-      </c>
-      <c r="I16" s="1">
-        <v>22601.7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1350</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>16.742</v>
-      </c>
-      <c r="L16" s="1">
-        <v>38.8</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.568505154639175</v>
+        <f>E16*D16*10</f>
+        <v>722.02166064982</v>
       </c>
       <c r="O16" s="1">
         <v>0.5</v>
@@ -2489,14 +2447,14 @@
         <v>2034.5</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.5040058982551</v>
       </c>
       <c r="Y16" s="1">
         <v>20.2</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.380989807017074</v>
       </c>
       <c r="AB16" s="1">
@@ -2520,55 +2478,55 @@
         <v>7054.5</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.73857821248848</v>
       </c>
       <c r="AK16" s="1">
         <v>1.88</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0752243550593179</v>
       </c>
     </row>
     <row r="17" spans="2:38">
       <c r="B17" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>0.07072</v>
+        <v>0.02429</v>
       </c>
       <c r="D17" s="1">
-        <v>14.14027149</v>
+        <v>41.16920543</v>
       </c>
       <c r="E17" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>989.8190045</v>
+        <v>1646.768217</v>
       </c>
       <c r="G17" s="1">
-        <v>79669</v>
+        <v>260624</v>
       </c>
       <c r="H17" s="1">
-        <v>2650</v>
+        <v>56221</v>
       </c>
       <c r="I17" s="1">
-        <v>24464.3</v>
+        <v>922026</v>
       </c>
       <c r="J17" s="1">
-        <v>2650</v>
+        <v>449800</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>9.23181132075472</v>
+        <f>I17/J17</f>
+        <v>2.0498577145398</v>
       </c>
       <c r="L17" s="1">
-        <v>16.2</v>
+        <v>2.4</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.430135103657116</v>
+        <f>ABS(L17-K17)/L17</f>
+        <v>0.145892618941752</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -2592,14 +2550,14 @@
         <v>3913</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.07487860976233</v>
       </c>
       <c r="Y17" s="1">
         <v>12.7</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.364182786632887</v>
       </c>
       <c r="AB17" s="2">
@@ -2623,55 +2581,55 @@
         <v>11169</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.64543826663085</v>
       </c>
       <c r="AK17" s="1">
         <v>2.89</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0846234371519539</v>
       </c>
     </row>
     <row r="18" spans="2:38">
       <c r="B18" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.04942</v>
+        <v>0.09687</v>
       </c>
       <c r="D18" s="1">
-        <v>20.23472278</v>
+        <v>10.32311345</v>
       </c>
       <c r="E18" s="1">
         <v>7</v>
       </c>
       <c r="F18" s="1">
-        <v>1416.430595</v>
+        <v>722.6179416</v>
       </c>
       <c r="G18" s="1">
-        <v>44467</v>
+        <v>141660</v>
       </c>
       <c r="H18" s="1">
-        <v>2737</v>
+        <v>2700</v>
       </c>
       <c r="I18" s="1">
-        <v>30427.1</v>
+        <v>22601.7</v>
       </c>
       <c r="J18" s="1">
-        <v>5474</v>
+        <v>1350</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>5.55847643405188</v>
+        <f>I18/J18</f>
+        <v>16.742</v>
       </c>
       <c r="L18" s="1">
-        <v>8.46</v>
+        <v>38.8</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.34296968864635</v>
+        <f>ABS(L18-K18)/L18</f>
+        <v>0.568505154639175</v>
       </c>
       <c r="O18" s="1">
         <v>2</v>
@@ -2695,14 +2653,14 @@
         <v>7982</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.21695063893761</v>
       </c>
       <c r="Y18" s="1">
         <v>7.88</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.33795042653076</v>
       </c>
       <c r="AB18" s="2">
@@ -2726,55 +2684,55 @@
         <v>20182</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.27900604499059</v>
       </c>
       <c r="AK18" s="1">
         <v>3.36</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0241053437528019</v>
       </c>
     </row>
     <row r="19" spans="2:38">
       <c r="B19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>0.03969</v>
+        <v>0.07072</v>
       </c>
       <c r="D19" s="1">
-        <v>25.19526329</v>
+        <v>14.14027149</v>
       </c>
       <c r="E19" s="1">
         <v>7</v>
       </c>
       <c r="F19" s="1">
-        <v>1763.66843</v>
+        <v>989.8190045</v>
       </c>
       <c r="G19" s="1">
-        <v>33109</v>
+        <v>79669</v>
       </c>
       <c r="H19" s="1">
-        <v>2837</v>
+        <v>2650</v>
       </c>
       <c r="I19" s="1">
-        <v>36676.2</v>
+        <v>24464.3</v>
       </c>
       <c r="J19" s="1">
-        <v>8511</v>
+        <v>2650</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>4.30927035600987</v>
+        <f>I19/J19</f>
+        <v>9.23181132075472</v>
       </c>
       <c r="L19" s="1">
-        <v>6.23</v>
+        <v>16.2</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.308303313642076</v>
+        <f>ABS(L19-K19)/L19</f>
+        <v>0.430135103657116</v>
       </c>
       <c r="O19" s="1">
         <v>3</v>
@@ -2798,14 +2756,14 @@
         <v>11922</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.23450763294749</v>
       </c>
       <c r="Y19" s="1">
         <v>6.03</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.297759928201079</v>
       </c>
       <c r="AB19" s="2">
@@ -2829,55 +2787,55 @@
         <v>29280</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.27788592896175</v>
       </c>
       <c r="AK19" s="1">
         <v>3.55</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0766518509966904</v>
       </c>
     </row>
     <row r="20" spans="2:38">
       <c r="B20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>0.03403</v>
+        <v>0.04942</v>
       </c>
       <c r="D20" s="1">
-        <v>29.38583603</v>
+        <v>20.23472278</v>
       </c>
       <c r="E20" s="1">
         <v>7</v>
       </c>
       <c r="F20" s="1">
-        <v>2057.008522</v>
+        <v>1416.430595</v>
       </c>
       <c r="G20" s="1">
-        <v>27596</v>
+        <v>44467</v>
       </c>
       <c r="H20" s="1">
-        <v>2821</v>
+        <v>2737</v>
       </c>
       <c r="I20" s="1">
-        <v>42422.9</v>
+        <v>30427.1</v>
       </c>
       <c r="J20" s="1">
-        <v>11284</v>
+        <v>5474</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>3.75956221198157</v>
+        <f>I20/J20</f>
+        <v>5.55847643405188</v>
       </c>
       <c r="L20" s="1">
-        <v>5.13</v>
+        <v>8.46</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="2"/>
-        <v>0.267141869009441</v>
+        <f>ABS(L20-K20)/L20</f>
+        <v>0.34296968864635</v>
       </c>
       <c r="O20" s="1">
         <v>4</v>
@@ -2901,14 +2859,14 @@
         <v>15664</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.69860827374872</v>
       </c>
       <c r="Y20" s="1">
         <v>5.07</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.270491464743842</v>
       </c>
       <c r="AB20" s="2">
@@ -2932,55 +2890,55 @@
         <v>36940</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.19455874390904</v>
       </c>
       <c r="AK20" s="1">
         <v>3.29</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0290095003315983</v>
       </c>
     </row>
     <row r="21" spans="2:38">
       <c r="B21" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>0.02429</v>
+        <v>0.03969</v>
       </c>
       <c r="D21" s="1">
-        <v>41.16920543</v>
+        <v>25.19526329</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
       </c>
       <c r="F21" s="1">
-        <v>2881.84438</v>
+        <v>1763.66843</v>
       </c>
       <c r="G21" s="1">
-        <v>19130</v>
+        <v>33109</v>
       </c>
       <c r="H21" s="1">
-        <v>2799</v>
+        <v>2837</v>
       </c>
       <c r="I21" s="1">
-        <v>63053.6</v>
+        <v>36676.2</v>
       </c>
       <c r="J21" s="1">
-        <v>22392</v>
+        <v>8511</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>2.81589853519114</v>
+        <f>I21/J21</f>
+        <v>4.30927035600987</v>
       </c>
       <c r="L21" s="1">
-        <v>3.34</v>
+        <v>6.23</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="2"/>
-        <v>0.156916606230198</v>
+        <f>ABS(L21-K21)/L21</f>
+        <v>0.308303313642076</v>
       </c>
       <c r="O21" s="1">
         <v>8</v>
@@ -3004,14 +2962,14 @@
         <v>29840</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.72900469168901</v>
       </c>
       <c r="Y21" s="1">
         <v>3.37</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.190206322940947</v>
       </c>
       <c r="AB21" s="2">
@@ -3035,55 +2993,55 @@
         <v>65104</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.43711599901696</v>
       </c>
       <c r="AK21" s="1">
         <v>2.61</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.316902681615693</v>
       </c>
     </row>
     <row r="22" spans="2:38">
       <c r="B22" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>0.09687</v>
+        <v>0.03403</v>
       </c>
       <c r="D22" s="1">
-        <v>10.32311345</v>
+        <v>29.38583603</v>
       </c>
       <c r="E22" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1">
-        <v>1032.311345</v>
+        <v>2057.008522</v>
       </c>
       <c r="G22" s="1">
-        <v>14099</v>
+        <v>27596</v>
       </c>
       <c r="H22" s="1">
-        <v>127</v>
+        <v>2821</v>
       </c>
       <c r="I22" s="1">
-        <v>2068.74</v>
+        <v>42422.9</v>
       </c>
       <c r="J22" s="1">
-        <v>63.5</v>
+        <v>11284</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
-        <v>32.5785826771654</v>
+        <f>I22/J22</f>
+        <v>3.75956221198157</v>
       </c>
       <c r="L22" s="1">
-        <v>77.6</v>
+        <v>5.13</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="2"/>
-        <v>0.580172903644776</v>
+        <f>ABS(L22-K22)/L22</f>
+        <v>0.267141869009441</v>
       </c>
       <c r="O22" s="1">
         <v>0.5</v>
@@ -3107,14 +3065,14 @@
         <v>112</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23.2877678571429</v>
       </c>
       <c r="Y22" s="1">
         <v>36.4</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.360226157770801</v>
       </c>
       <c r="AB22" s="1">
@@ -3138,55 +3096,32 @@
         <v>410</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.95724146341463</v>
       </c>
       <c r="AK22" s="1">
         <v>2.09</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0635208309020888</v>
       </c>
     </row>
     <row r="23" spans="2:38">
       <c r="B23" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>0.07072</v>
+        <v>0.0277</v>
       </c>
       <c r="D23" s="1">
-        <v>14.14027149</v>
+        <v>36.10108303</v>
       </c>
       <c r="E23" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>1414.027149</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6522</v>
-      </c>
-      <c r="H23" s="1">
-        <v>120</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1867.71</v>
-      </c>
-      <c r="J23" s="1">
-        <v>120</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>15.56425</v>
-      </c>
-      <c r="L23" s="1">
-        <v>27.1</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="2"/>
-        <v>0.425673431734317</v>
+        <v>722.0216606</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -3210,14 +3145,14 @@
         <v>212</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.2408490566038</v>
       </c>
       <c r="Y23" s="1">
         <v>20.7</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.360345456202716</v>
       </c>
       <c r="AB23" s="2">
@@ -3241,55 +3176,55 @@
         <v>621</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.13913043478261</v>
       </c>
       <c r="AK23" s="1">
         <v>3.51</v>
       </c>
       <c r="AL23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.105660844791279</v>
       </c>
     </row>
     <row r="24" spans="2:38">
       <c r="B24" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>0.04942</v>
+        <v>0.02429</v>
       </c>
       <c r="D24" s="1">
-        <v>20.23472278</v>
+        <v>41.16920543</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>2023.472278</v>
+        <v>2881.84438</v>
       </c>
       <c r="G24" s="1">
-        <v>3295</v>
+        <v>19130</v>
       </c>
       <c r="H24" s="1">
-        <v>147</v>
+        <v>2799</v>
       </c>
       <c r="I24" s="1">
-        <v>2205.41</v>
+        <v>63053.6</v>
       </c>
       <c r="J24" s="1">
-        <v>296</v>
+        <v>22392</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>7.45070945945946</v>
+        <f>I24/J24</f>
+        <v>2.81589853519114</v>
       </c>
       <c r="L24" s="1">
-        <v>12.4</v>
+        <v>3.34</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.39913633391456</v>
+        <f>ABS(L24-K24)/L24</f>
+        <v>0.156916606230198</v>
       </c>
       <c r="O24" s="1">
         <v>2</v>
@@ -3313,14 +3248,14 @@
         <v>502</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.89009960159363</v>
       </c>
       <c r="Y24" s="1">
         <v>11.6</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.406025896414343</v>
       </c>
       <c r="AB24" s="2">
@@ -3344,55 +3279,55 @@
         <v>1050</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.32870476190476</v>
       </c>
       <c r="AK24" s="1">
         <v>5.05</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.142830740216879</v>
       </c>
     </row>
     <row r="25" spans="2:38">
       <c r="B25" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="1">
-        <v>0.03969</v>
+        <v>0.09687</v>
       </c>
       <c r="D25" s="1">
-        <v>25.19526329</v>
+        <v>10.32311345</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>2519.526329</v>
+        <v>1032.311345</v>
       </c>
       <c r="G25" s="1">
-        <v>2315</v>
+        <v>14099</v>
       </c>
       <c r="H25" s="1">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="I25" s="1">
-        <v>2487.5</v>
+        <v>2068.74</v>
       </c>
       <c r="J25" s="1">
-        <v>456</v>
+        <v>63.5</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>5.45504385964912</v>
+        <f>I25/J25</f>
+        <v>32.5785826771654</v>
       </c>
       <c r="L25" s="1">
-        <v>8.63</v>
+        <v>77.6</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.367897582891179</v>
+        <f>ABS(L25-K25)/L25</f>
+        <v>0.580172903644776</v>
       </c>
       <c r="O25" s="1">
         <v>3</v>
@@ -3416,14 +3351,14 @@
         <v>723</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.4383540802213</v>
       </c>
       <c r="Y25" s="1">
         <v>8.45</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.356407801157243</v>
       </c>
       <c r="AB25" s="2">
@@ -3447,55 +3382,55 @@
         <v>1371</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.93760758570387</v>
       </c>
       <c r="AK25" s="1">
         <v>5.41</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.0873183760251635</v>
       </c>
     </row>
     <row r="26" spans="2:38">
       <c r="B26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>0.03403</v>
+        <v>0.07072</v>
       </c>
       <c r="D26" s="1">
-        <v>29.38583603</v>
+        <v>14.14027149</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
       <c r="F26" s="1">
-        <v>2938.583603</v>
+        <v>1414.027149</v>
       </c>
       <c r="G26" s="1">
-        <v>1903</v>
+        <v>6522</v>
       </c>
       <c r="H26" s="1">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="I26" s="1">
-        <v>1764.43</v>
+        <v>1867.71</v>
       </c>
       <c r="J26" s="1">
-        <v>596</v>
+        <v>120</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>2.96045302013423</v>
+        <f>I26/J26</f>
+        <v>15.56425</v>
       </c>
       <c r="L26" s="1">
-        <v>6.94</v>
+        <v>27.1</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.573421755023886</v>
+        <f>ABS(L26-K26)/L26</f>
+        <v>0.425673431734317</v>
       </c>
       <c r="O26" s="1">
         <v>4</v>
@@ -3519,14 +3454,14 @@
         <v>964</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.61498962655602</v>
       </c>
       <c r="Y26" s="1">
         <v>6.94</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.335015903954464</v>
       </c>
       <c r="AB26" s="2">
@@ -3550,49 +3485,55 @@
         <v>1780</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.65317415730337</v>
       </c>
       <c r="AK26" s="1">
         <v>5.38</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.135097740278184</v>
       </c>
     </row>
     <row r="27" spans="2:38">
       <c r="B27" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>0.02429</v>
+        <v>0.04942</v>
       </c>
       <c r="D27" s="1">
-        <v>41.16920543</v>
+        <v>20.23472278</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>4116.920543</v>
+        <v>2023.472278</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3295</v>
+      </c>
+      <c r="H27" s="1">
+        <v>147</v>
       </c>
       <c r="I27" s="1">
-        <v>1692.16</v>
+        <v>2205.41</v>
       </c>
       <c r="J27" s="1">
-        <v>544</v>
+        <v>296</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
-        <v>3.11058823529412</v>
+        <f>I27/J27</f>
+        <v>7.45070945945946</v>
       </c>
       <c r="L27" s="1">
-        <v>4.25</v>
+        <v>12.4</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.268096885813149</v>
+        <f>ABS(L27-K27)/L27</f>
+        <v>0.39913633391456</v>
       </c>
       <c r="O27" s="1">
         <v>8</v>
@@ -3616,14 +3557,14 @@
         <v>1592</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.59980527638191</v>
       </c>
       <c r="Y27" s="1">
         <v>4.4</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.18186243718593</v>
       </c>
       <c r="AB27" s="2">
@@ -3647,43 +3588,55 @@
         <v>2976</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.09590053763441</v>
       </c>
       <c r="AK27" s="1">
         <v>4.61</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.322321157838267</v>
       </c>
     </row>
     <row r="28" spans="2:38">
       <c r="B28" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>0.09687</v>
+        <v>0.03969</v>
       </c>
       <c r="D28" s="1">
-        <v>10.32311345</v>
+        <v>25.19526329</v>
       </c>
       <c r="E28" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>1548.467018</v>
-      </c>
-      <c r="K28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2519.526329</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2315</v>
+      </c>
+      <c r="H28" s="1">
+        <v>152</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2487.5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>456</v>
+      </c>
+      <c r="K28" s="1">
+        <f>I28/J28</f>
+        <v>5.45504385964912</v>
       </c>
       <c r="L28" s="1">
-        <v>178</v>
-      </c>
-      <c r="M28" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.63</v>
+      </c>
+      <c r="M28" s="1">
+        <f>ABS(L28-K28)/L28</f>
+        <v>0.367897582891179</v>
       </c>
       <c r="O28" s="1">
         <v>0.5</v>
@@ -3701,14 +3654,14 @@
         <v>701.0656197</v>
       </c>
       <c r="X28" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="1">
         <v>75.5</v>
       </c>
       <c r="Z28" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="1">
@@ -3726,43 +3679,55 @@
         <v>15</v>
       </c>
       <c r="AJ28" s="1" t="e">
-        <f t="shared" ref="AJ28:AJ33" si="7">AF28/AG28</f>
+        <f t="shared" ref="AJ28:AJ33" si="5">AF28/AG28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK28" s="1">
         <v>2.36</v>
       </c>
       <c r="AL28" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:38">
       <c r="B29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>0.07072</v>
+        <v>0.03403</v>
       </c>
       <c r="D29" s="1">
-        <v>14.14027149</v>
+        <v>29.38583603</v>
       </c>
       <c r="E29" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1">
-        <v>2121.040724</v>
-      </c>
-      <c r="K29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2938.583603</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1903</v>
+      </c>
+      <c r="H29" s="1">
+        <v>149</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1764.43</v>
+      </c>
+      <c r="J29" s="1">
+        <v>596</v>
+      </c>
+      <c r="K29" s="1">
+        <f>I29/J29</f>
+        <v>2.96045302013423</v>
       </c>
       <c r="L29" s="1">
-        <v>50.4</v>
-      </c>
-      <c r="M29" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.94</v>
+      </c>
+      <c r="M29" s="1">
+        <f>ABS(L29-K29)/L29</f>
+        <v>0.573421755023886</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -3780,14 +3745,14 @@
         <v>962.2786759</v>
       </c>
       <c r="X29" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="1">
         <v>37.1</v>
       </c>
       <c r="Z29" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="2">
@@ -3805,43 +3770,32 @@
         <v>15</v>
       </c>
       <c r="AJ29" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK29" s="1">
         <v>4.43</v>
       </c>
       <c r="AL29" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:38">
       <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0277</v>
+      </c>
+      <c r="D30" s="1">
+        <v>36.10108303</v>
+      </c>
+      <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.04942</v>
-      </c>
-      <c r="D30" s="1">
-        <v>20.23472278</v>
-      </c>
-      <c r="E30" s="1">
-        <v>15</v>
-      </c>
       <c r="F30" s="1">
-        <v>3035.208418</v>
-      </c>
-      <c r="K30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="M30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>722.0216606</v>
       </c>
       <c r="O30" s="1">
         <v>2</v>
@@ -3859,14 +3813,14 @@
         <v>1371.516348</v>
       </c>
       <c r="X30" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="1">
         <v>18.3</v>
       </c>
       <c r="Z30" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="2">
@@ -3884,43 +3838,49 @@
         <v>15</v>
       </c>
       <c r="AJ30" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK30" s="1">
         <v>7.39</v>
       </c>
       <c r="AL30" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="2:38">
       <c r="B31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>0.03969</v>
+        <v>0.02429</v>
       </c>
       <c r="D31" s="1">
-        <v>25.19526329</v>
+        <v>41.16920543</v>
       </c>
       <c r="E31" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>3779.289494</v>
-      </c>
-      <c r="K31" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4116.920543</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1692.16</v>
+      </c>
+      <c r="J31" s="1">
+        <v>544</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" ref="K31:K37" si="6">I31/J31</f>
+        <v>3.11058823529412</v>
       </c>
       <c r="L31" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="M31" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.25</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ref="M31:M37" si="7">ABS(L31-K31)/L31</f>
+        <v>0.268096885813149</v>
       </c>
       <c r="O31" s="1">
         <v>3</v>
@@ -3938,14 +3898,14 @@
         <v>1688.732775</v>
       </c>
       <c r="X31" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="1">
         <v>12.7</v>
       </c>
       <c r="Z31" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="2">
@@ -3963,42 +3923,42 @@
         <v>15</v>
       </c>
       <c r="AJ31" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="1">
         <v>8.17</v>
       </c>
       <c r="AL31" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:38">
       <c r="B32" s="1">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="1">
-        <v>0.03403</v>
+        <v>0.09687</v>
       </c>
       <c r="D32" s="1">
-        <v>29.38583603</v>
+        <v>10.32311345</v>
       </c>
       <c r="E32" s="1">
         <v>15</v>
       </c>
       <c r="F32" s="1">
-        <v>4407.875404</v>
+        <v>1548.467018</v>
       </c>
       <c r="K32" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="1">
-        <v>9.97</v>
+        <v>178</v>
       </c>
       <c r="M32" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="1">
@@ -4017,14 +3977,14 @@
         <v>1942.803855</v>
       </c>
       <c r="X32" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="1">
         <v>10.2</v>
       </c>
       <c r="Z32" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="2">
@@ -4042,42 +4002,42 @@
         <v>15</v>
       </c>
       <c r="AJ32" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK32" s="1">
         <v>9.45</v>
       </c>
       <c r="AL32" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:38">
       <c r="B33" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>0.02429</v>
+        <v>0.07072</v>
       </c>
       <c r="D33" s="1">
-        <v>41.16920543</v>
+        <v>14.14027149</v>
       </c>
       <c r="E33" s="1">
         <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>6175.380815</v>
+        <v>2121.040724</v>
       </c>
       <c r="K33" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="1">
-        <v>5.66</v>
+        <v>50.4</v>
       </c>
       <c r="M33" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="1">
@@ -4096,14 +4056,14 @@
         <v>2569.901316</v>
       </c>
       <c r="X33" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y33" s="1">
         <v>6.16</v>
       </c>
       <c r="Z33" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="2">
@@ -4121,14 +4081,143 @@
         <v>15</v>
       </c>
       <c r="AJ33" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="1">
         <v>11</v>
       </c>
       <c r="AL33" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.04942</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20.23472278</v>
+      </c>
+      <c r="E34" s="1">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3035.208418</v>
+      </c>
+      <c r="K34" s="1" t="e">
         <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M34" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.03969</v>
+      </c>
+      <c r="D35" s="1">
+        <v>25.19526329</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3779.289494</v>
+      </c>
+      <c r="K35" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="M35" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.03403</v>
+      </c>
+      <c r="D36" s="1">
+        <v>29.38583603</v>
+      </c>
+      <c r="E36" s="1">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4407.875404</v>
+      </c>
+      <c r="K36" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="1">
+        <v>9.97</v>
+      </c>
+      <c r="M36" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0277</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36.10108303</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>722.0216606</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.02429</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41.16920543</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6175.380815</v>
+      </c>
+      <c r="K38" s="1" t="e">
+        <f>I38/J38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="M38" s="1" t="e">
+        <f>ABS(L38-K38)/L38</f>
         <v>#DIV/0!</v>
       </c>
     </row>
